--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_15.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5283674.776931893</v>
+        <v>5283674.776931894</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -795,10 +795,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>171.0057867469176</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>200.3360962888296</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>84.56713651463427</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>132.876626399942</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1233,7 +1233,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>1.809496073036132</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1388,7 +1388,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>33.6917669883161</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>7.83710273534405</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,22 +1613,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>32.94517566205823</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1859,10 +1859,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="21">
@@ -2163,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>38.38161978185917</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>202.2946864288974</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>220.2131257424248</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>183.8842973311963</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,16 +2685,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>64.38401073897953</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,67 +2798,67 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>64.38401073897953</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2934,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>29.1427070647978</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3168,13 +3168,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>12.94771755361648</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>23.76035781220138</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3478,16 +3478,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,19 +3503,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>241.014288877659</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>190.3453970742846</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3664,58 +3664,58 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C41" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>190.3453970742846</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>164.4530035161876</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.0524176386246</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3980,25 +3980,25 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>190.3453970742846</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,19 +4022,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>56.80931493161753</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>49.31110394229507</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4192,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4358,22 +4358,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W2" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U2" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="X2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>187.4964801302808</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F5" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G5" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
         <v>20.03527576299844</v>
@@ -4653,43 +4653,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="7">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>231.8830517671884</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
         <v>231.8830517671884</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4860,25 +4860,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,7 +4890,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4978,13 +4978,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
         <v>19.28114311021272</v>
@@ -5021,19 +5021,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5109,13 +5109,13 @@
         <v>166.6823665696193</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5127,7 +5127,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
         <v>19.28114311021272</v>
@@ -5218,31 +5218,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>795.8418184905681</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C15" t="n">
-        <v>621.3887892094411</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>472.4543795481899</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>313.2169245427344</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>166.6823665696193</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5358,49 +5358,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5695,19 +5695,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5750,7 +5750,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5762,40 +5762,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984127</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>363.8224689997521</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>204.5850139942966</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>58.05045602118159</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565421</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247994</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984127</v>
+        <v>467.0679868542092</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984127</v>
+        <v>223.6192102101091</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -5999,40 +5999,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N23" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O23" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P23" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483368</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984127</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984127</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984127</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984127</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984127</v>
+        <v>710.5167634983092</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441254</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950733</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O24" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973067</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q24" t="n">
         <v>964.057155510636</v>
@@ -6099,19 +6099,19 @@
         <v>964.057155510636</v>
       </c>
       <c r="U24" t="n">
-        <v>778.3154410346801</v>
+        <v>913.4938269565421</v>
       </c>
       <c r="V24" t="n">
-        <v>778.3154410346801</v>
+        <v>678.3417187247994</v>
       </c>
       <c r="W24" t="n">
-        <v>778.3154410346801</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>570.4639408291473</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>362.7036420641934</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6178,7 +6178,7 @@
         <v>964.057155510636</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203653</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V25" t="n">
         <v>829.5248650203653</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6309,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>899.0228012288387</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>670.7991829652278</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V27" t="n">
-        <v>435.6470747334852</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>435.6470747334852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6497,16 +6497,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y29" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="W29" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="X29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>899.0228012288387</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>670.7991829652278</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>435.6470747334852</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>435.6470747334852</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.9655401424089</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>953.9655401424089</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D32" t="n">
-        <v>710.5167634983089</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E32" t="n">
-        <v>467.0679868542089</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F32" t="n">
         <v>223.6192102101089</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729607</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729607</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6710,40 +6710,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P32" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424089</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299843</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299843</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299843</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6783,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.8095319084027</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>542.8095319084027</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972852</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>934.6200776674059</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>706.396459403795</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>471.2443511720523</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>227.7955745279523</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>227.7955745279523</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299843</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280782</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203004</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757367</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6968,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.057155510636</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>964.057155510636</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>749.6274730425127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984127</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>259.2693145670932</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="C36" t="n">
-        <v>259.2693145670932</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="D36" t="n">
-        <v>110.334904905842</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="E36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950733</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950733</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>712.0191193839557</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.057155510636</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>761.870560869402</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>737.8701994429359</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>502.7180912111932</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>259.2693145670932</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>259.2693145670932</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y36" t="n">
-        <v>259.2693145670932</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7181,43 +7181,43 @@
         <v>302.3720006057937</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N38" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O38" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P38" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7254,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363992</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950733</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565421</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247994</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7418,43 +7418,43 @@
         <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>518.2486856454962</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299843</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299843</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299843</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,46 +7494,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>542.8095319084027</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>542.8095319084027</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972852</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470251</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152824</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711824</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564955</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299843</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="43">
@@ -7546,10 +7546,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>953.9655401424089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>953.9655401424089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7658,40 +7658,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424089</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424089</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424089</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424089</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>953.9655401424089</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299843</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299843</v>
+        <v>622.424473941237</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299843</v>
+        <v>473.4900642799857</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299843</v>
+        <v>314.2526092745302</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299843</v>
+        <v>167.7180513014152</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299843</v>
+        <v>167.7180513014152</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299843</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363992</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>542.8095319084027</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>542.8095319084027</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972852</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.057155510636</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>964.057155510636</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>914.2479596093278</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>679.0958513775852</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W45" t="n">
-        <v>435.6470747334852</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X45" t="n">
-        <v>227.7955745279523</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299843</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="46">
@@ -7840,7 +7840,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8775,10 +8775,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>368.5691090902119</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236954</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515267</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221034</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9957,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>222.4246658592332</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10200,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>174.6270615612551</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.0408247018198</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519922</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133071</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.0408247018198</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>312.0408247018198</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22683,10 +22683,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>61.79480040250769</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22726,7 +22726,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22790,7 +22790,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22802,10 +22802,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>10.13979328157632</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>121.2058486888432</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23027,16 +23027,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>118.4690265078945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23121,7 +23121,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23218,16 +23218,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23261,13 +23261,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>380.1208739992256</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23276,7 +23276,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23349,16 +23349,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>103.6517501748945</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3983415011524</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23458,10 +23458,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,22 +23501,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23586,13 +23586,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>104.3983415011524</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23674,10 +23674,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,16 +23692,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23738,7 +23738,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23747,10 +23747,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24026,16 +24026,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="21">
@@ -24051,16 +24051,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>98.96189738135146</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24102,19 +24102,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24142,7 +24142,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917855</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,10 +24218,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24257,10 +24257,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>31.13252716541166</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,13 +24339,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>42.05708474977854</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,13 +24443,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>324.7966126378724</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -24494,22 +24494,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,16 +24573,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>135.7807179558421</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,19 +24686,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24765,7 +24765,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>52.90669720804131</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>135.7807179558421</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24822,10 +24822,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24914,31 +24914,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>224.9573404408503</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25002,7 +25002,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>122.9844063081204</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25047,7 +25047,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>171.0220216300238</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,13 +25056,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25123,13 +25123,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933486</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25208,16 +25208,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>144.6973629017845</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>202.1810242687734</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,19 +25391,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933486</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>113.668752743024</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>158.8955716431284</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25476,7 +25476,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>107.5873851868479</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25524,13 +25524,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933486</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>137.4068613958503</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>108.226679839754</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>8.255495472128104</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.6302781386798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25786,13 +25786,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25868,25 +25868,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>164.3376445463983</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.2884486374761</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,19 +25910,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25941,28 +25941,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>55.42612930487893</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,25 +25992,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6302781386798</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26080,10 +26080,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>456941.8494611642</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26451,10 +26451,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
         <v>179.5324977039669</v>
@@ -26522,7 +26522,7 @@
         <v>-4609.72839451411</v>
       </c>
       <c r="C6" t="n">
-        <v>76159.70313703365</v>
+        <v>76159.70313703363</v>
       </c>
       <c r="D6" t="n">
         <v>76159.70313703365</v>
@@ -26534,34 +26534,34 @@
         <v>109787.3031370336</v>
       </c>
       <c r="G6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="H6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="I6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="J6" t="n">
-        <v>46727.3605379274</v>
+        <v>46727.36053792742</v>
       </c>
       <c r="K6" t="n">
         <v>109787.3031370337</v>
       </c>
       <c r="L6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="M6" t="n">
         <v>109787.3031370336</v>
       </c>
       <c r="N6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="O6" t="n">
         <v>109787.3031370336</v>
       </c>
       <c r="P6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26805,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I4" t="n">
         <v>241.014288877659</v>
@@ -26817,19 +26817,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="M4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35495,10 +35495,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35653,7 +35653,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681934</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.014288877659</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,16 +36920,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>43.28534947792182</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798015</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997385</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655595</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997385</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655595</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37865,13 +37865,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798015</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798015</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O45" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
